--- a/Python Heat Transfer Analysis/solarData.xlsx
+++ b/Python Heat Transfer Analysis/solarData.xlsx
@@ -1,37 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtran\Desktop\solarModel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtran\Documents\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8ADDC2-9B7B-4ABC-BF0C-541704BC4360}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1489A8-E176-4424-9FC8-54F82ECD337A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2680" yWindow="2580" windowWidth="16920" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="121">
   <si>
     <t>Testing Date</t>
   </si>
@@ -94,292 +84,277 @@
     <t>12-01-2019</t>
   </si>
   <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Temp1 [C]</t>
+  </si>
+  <si>
+    <t>Temp2 [C]</t>
+  </si>
+  <si>
+    <t>Temp_a [C]</t>
+  </si>
+  <si>
+    <t>16:32:00</t>
+  </si>
+  <si>
+    <t>16:37:00</t>
+  </si>
+  <si>
+    <t>16:42:00</t>
+  </si>
+  <si>
+    <t>16:47:00</t>
+  </si>
+  <si>
+    <t>16:52:00</t>
+  </si>
+  <si>
+    <t>16:57:00</t>
+  </si>
+  <si>
+    <t>17:02:00</t>
+  </si>
+  <si>
+    <t>17:07:00</t>
+  </si>
+  <si>
+    <t>17:12:00</t>
+  </si>
+  <si>
+    <t>17:17:00</t>
+  </si>
+  <si>
+    <t>17:22:00</t>
+  </si>
+  <si>
+    <t>17:27:00</t>
+  </si>
+  <si>
+    <t>17:32:00</t>
+  </si>
+  <si>
+    <t>17:37:00</t>
+  </si>
+  <si>
+    <t>17:42:00</t>
+  </si>
+  <si>
+    <t>17:47:00</t>
+  </si>
+  <si>
+    <t>17:52:00</t>
+  </si>
+  <si>
+    <t>17:57:00</t>
+  </si>
+  <si>
+    <t>08:50:00</t>
+  </si>
+  <si>
+    <t>08:55:00</t>
+  </si>
+  <si>
+    <t>09:00:00</t>
+  </si>
+  <si>
+    <t>09:05:00</t>
+  </si>
+  <si>
+    <t>09:10:00</t>
+  </si>
+  <si>
+    <t>09:15:00</t>
+  </si>
+  <si>
+    <t>09:20:00</t>
+  </si>
+  <si>
+    <t>09:25:00</t>
+  </si>
+  <si>
+    <t>09:30:00</t>
+  </si>
+  <si>
+    <t>09:35:00</t>
+  </si>
+  <si>
+    <t>09:40:00</t>
+  </si>
+  <si>
+    <t>09:45:00</t>
+  </si>
+  <si>
+    <t>09:50:00</t>
+  </si>
+  <si>
+    <t>09:55:00</t>
+  </si>
+  <si>
+    <t>10:00:00</t>
+  </si>
+  <si>
+    <t>10:05:00</t>
+  </si>
+  <si>
+    <t>10:10:00</t>
+  </si>
+  <si>
+    <t>10:15:00</t>
+  </si>
+  <si>
+    <t>10:20:00</t>
+  </si>
+  <si>
+    <t>10:25:00</t>
+  </si>
+  <si>
+    <t>10:30:00</t>
+  </si>
+  <si>
+    <t>10:35:00</t>
+  </si>
+  <si>
+    <t>10:40:00</t>
+  </si>
+  <si>
+    <t>10:45:00</t>
+  </si>
+  <si>
+    <t>10:50:00</t>
+  </si>
+  <si>
+    <t>10:55:00</t>
+  </si>
+  <si>
+    <t>11:00:00</t>
+  </si>
+  <si>
+    <t>11:05:00</t>
+  </si>
+  <si>
+    <t>11:10:00</t>
+  </si>
+  <si>
+    <t>11:15:00</t>
+  </si>
+  <si>
+    <t>11:20:00</t>
+  </si>
+  <si>
+    <t>11:25:00</t>
+  </si>
+  <si>
+    <t>11:30:00</t>
+  </si>
+  <si>
+    <t>11:35:00</t>
+  </si>
+  <si>
+    <t>11:40:00</t>
+  </si>
+  <si>
+    <t>11:45:00</t>
+  </si>
+  <si>
+    <t>11:50:00</t>
+  </si>
+  <si>
+    <t>11:55:00</t>
+  </si>
+  <si>
+    <t>12:00:00</t>
+  </si>
+  <si>
+    <t>12:05:00</t>
+  </si>
+  <si>
+    <t>12:10:00</t>
+  </si>
+  <si>
+    <t>12:15:00</t>
+  </si>
+  <si>
+    <t>12:20:00</t>
+  </si>
+  <si>
+    <t>12:25:00</t>
+  </si>
+  <si>
+    <t>12:30:00</t>
+  </si>
+  <si>
+    <t>12:35:00</t>
+  </si>
+  <si>
+    <t>12:40:00</t>
+  </si>
+  <si>
+    <t>12:45:00</t>
+  </si>
+  <si>
+    <t>12:50:00</t>
+  </si>
+  <si>
+    <t>12:55:00</t>
+  </si>
+  <si>
+    <t>13:00:00</t>
+  </si>
+  <si>
+    <t>13:05:00</t>
+  </si>
+  <si>
+    <t>13:10:00</t>
+  </si>
+  <si>
+    <t>13:15:00</t>
+  </si>
+  <si>
+    <t>13:20:00</t>
+  </si>
+  <si>
+    <t>13:25:00</t>
+  </si>
+  <si>
+    <t>13:30:00</t>
+  </si>
+  <si>
+    <t>13:35:00</t>
+  </si>
+  <si>
+    <t>13:40:00</t>
+  </si>
+  <si>
+    <t>13:45:00</t>
+  </si>
+  <si>
+    <t>13:50:00</t>
+  </si>
+  <si>
+    <t>13:55:00</t>
+  </si>
+  <si>
+    <t>14:00:00</t>
+  </si>
+  <si>
+    <t>14:05:00</t>
+  </si>
+  <si>
+    <t>14:10:00</t>
+  </si>
+  <si>
+    <t>14:15:00</t>
+  </si>
+  <si>
     <t>Test</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Light Drizzle</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Cloudy</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Temp1 [C]</t>
-  </si>
-  <si>
-    <t>Temp2 [C]</t>
-  </si>
-  <si>
-    <t>Temp_a [C]</t>
-  </si>
-  <si>
-    <t>16:32:00</t>
-  </si>
-  <si>
-    <t>16:37:00</t>
-  </si>
-  <si>
-    <t>16:42:00</t>
-  </si>
-  <si>
-    <t>16:47:00</t>
-  </si>
-  <si>
-    <t>16:52:00</t>
-  </si>
-  <si>
-    <t>16:57:00</t>
-  </si>
-  <si>
-    <t>17:02:00</t>
-  </si>
-  <si>
-    <t>17:07:00</t>
-  </si>
-  <si>
-    <t>17:12:00</t>
-  </si>
-  <si>
-    <t>17:17:00</t>
-  </si>
-  <si>
-    <t>17:22:00</t>
-  </si>
-  <si>
-    <t>17:27:00</t>
-  </si>
-  <si>
-    <t>17:32:00</t>
-  </si>
-  <si>
-    <t>17:37:00</t>
-  </si>
-  <si>
-    <t>17:42:00</t>
-  </si>
-  <si>
-    <t>17:47:00</t>
-  </si>
-  <si>
-    <t>17:52:00</t>
-  </si>
-  <si>
-    <t>17:57:00</t>
-  </si>
-  <si>
-    <t>08:50:00</t>
-  </si>
-  <si>
-    <t>08:55:00</t>
-  </si>
-  <si>
-    <t>09:00:00</t>
-  </si>
-  <si>
-    <t>09:05:00</t>
-  </si>
-  <si>
-    <t>09:10:00</t>
-  </si>
-  <si>
-    <t>09:15:00</t>
-  </si>
-  <si>
-    <t>09:20:00</t>
-  </si>
-  <si>
-    <t>09:25:00</t>
-  </si>
-  <si>
-    <t>09:30:00</t>
-  </si>
-  <si>
-    <t>09:35:00</t>
-  </si>
-  <si>
-    <t>09:40:00</t>
-  </si>
-  <si>
-    <t>09:45:00</t>
-  </si>
-  <si>
-    <t>09:50:00</t>
-  </si>
-  <si>
-    <t>09:55:00</t>
-  </si>
-  <si>
-    <t>10:00:00</t>
-  </si>
-  <si>
-    <t>10:05:00</t>
-  </si>
-  <si>
-    <t>10:10:00</t>
-  </si>
-  <si>
-    <t>10:15:00</t>
-  </si>
-  <si>
-    <t>10:20:00</t>
-  </si>
-  <si>
-    <t>10:25:00</t>
-  </si>
-  <si>
-    <t>10:30:00</t>
-  </si>
-  <si>
-    <t>10:35:00</t>
-  </si>
-  <si>
-    <t>10:40:00</t>
-  </si>
-  <si>
-    <t>10:45:00</t>
-  </si>
-  <si>
-    <t>10:50:00</t>
-  </si>
-  <si>
-    <t>10:55:00</t>
-  </si>
-  <si>
-    <t>11:00:00</t>
-  </si>
-  <si>
-    <t>11:05:00</t>
-  </si>
-  <si>
-    <t>11:10:00</t>
-  </si>
-  <si>
-    <t>11:15:00</t>
-  </si>
-  <si>
-    <t>11:20:00</t>
-  </si>
-  <si>
-    <t>11:25:00</t>
-  </si>
-  <si>
-    <t>11:30:00</t>
-  </si>
-  <si>
-    <t>11:35:00</t>
-  </si>
-  <si>
-    <t>11:40:00</t>
-  </si>
-  <si>
-    <t>11:45:00</t>
-  </si>
-  <si>
-    <t>11:50:00</t>
-  </si>
-  <si>
-    <t>11:55:00</t>
-  </si>
-  <si>
-    <t>12:00:00</t>
-  </si>
-  <si>
-    <t>12:05:00</t>
-  </si>
-  <si>
-    <t>12:10:00</t>
-  </si>
-  <si>
-    <t>12:15:00</t>
-  </si>
-  <si>
-    <t>12:20:00</t>
-  </si>
-  <si>
-    <t>12:25:00</t>
-  </si>
-  <si>
-    <t>12:30:00</t>
-  </si>
-  <si>
-    <t>12:35:00</t>
-  </si>
-  <si>
-    <t>12:40:00</t>
-  </si>
-  <si>
-    <t>12:45:00</t>
-  </si>
-  <si>
-    <t>12:50:00</t>
-  </si>
-  <si>
-    <t>12:55:00</t>
-  </si>
-  <si>
-    <t>13:00:00</t>
-  </si>
-  <si>
-    <t>13:05:00</t>
-  </si>
-  <si>
-    <t>13:10:00</t>
-  </si>
-  <si>
-    <t>13:15:00</t>
-  </si>
-  <si>
-    <t>13:20:00</t>
-  </si>
-  <si>
-    <t>13:25:00</t>
-  </si>
-  <si>
-    <t>13:30:00</t>
-  </si>
-  <si>
-    <t>13:35:00</t>
-  </si>
-  <si>
-    <t>13:40:00</t>
-  </si>
-  <si>
-    <t>13:45:00</t>
-  </si>
-  <si>
-    <t>13:50:00</t>
-  </si>
-  <si>
-    <t>13:55:00</t>
-  </si>
-  <si>
-    <t>14:00:00</t>
-  </si>
-  <si>
-    <t>14:05:00</t>
-  </si>
-  <si>
-    <t>14:10:00</t>
-  </si>
-  <si>
-    <t>14:15:00</t>
   </si>
   <si>
     <t xml:space="preserve"> 10-03-2020</t>
@@ -416,8 +391,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -489,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -499,10 +475,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -817,17 +795,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.36328125" style="4" customWidth="1"/>
     <col min="2" max="2" width="16.453125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.36328125" style="4" customWidth="1"/>
     <col min="10" max="10" width="9.08984375" style="4" customWidth="1"/>
     <col min="11" max="11" width="18.36328125" style="4" customWidth="1"/>
@@ -848,7 +826,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -893,7 +871,7 @@
       <c r="C2">
         <v>0.1</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>43864.692361111112</v>
       </c>
       <c r="F2">
@@ -937,7 +915,7 @@
       <c r="C3">
         <v>0.1</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>43864.371527777781</v>
       </c>
       <c r="F3">
@@ -972,187 +950,50 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="6">
-        <v>43884.0476851852</v>
-      </c>
-      <c r="F4">
-        <v>3.806</v>
-      </c>
-      <c r="G4">
-        <v>26</v>
-      </c>
-      <c r="H4">
-        <v>85</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4">
-        <v>24.5</v>
-      </c>
-      <c r="K4">
-        <v>24</v>
-      </c>
-      <c r="L4">
-        <v>0.5</v>
-      </c>
-      <c r="M4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4">
-        <v>3.7829999999999999</v>
-      </c>
-      <c r="O4">
-        <v>10.46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="6">
-        <v>43885.0476851852</v>
-      </c>
-      <c r="F5">
-        <v>3.806</v>
-      </c>
-      <c r="G5">
-        <v>26</v>
-      </c>
-      <c r="H5">
-        <v>85</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5">
-        <v>24.5</v>
-      </c>
-      <c r="K5">
-        <v>24</v>
-      </c>
-      <c r="L5">
-        <v>0.5</v>
-      </c>
-      <c r="M5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5">
-        <v>3.7829999999999999</v>
-      </c>
-      <c r="O5">
-        <v>4.1840000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="6">
-        <v>43885.0476851852</v>
-      </c>
-      <c r="F6">
-        <v>3.806</v>
-      </c>
-      <c r="G6">
-        <v>26</v>
-      </c>
-      <c r="H6">
-        <v>85</v>
-      </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6">
-        <v>24</v>
-      </c>
-      <c r="L6">
-        <v>0.5</v>
-      </c>
-      <c r="M6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6">
-        <v>3.7829999999999999</v>
-      </c>
-      <c r="O6">
-        <v>6.2759999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="6">
-        <v>43885.0476851852</v>
-      </c>
-      <c r="F7">
-        <v>3.806</v>
-      </c>
-      <c r="G7">
-        <v>26</v>
-      </c>
-      <c r="H7">
-        <v>85</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7">
-        <v>24.5</v>
-      </c>
-      <c r="K7">
-        <v>24</v>
-      </c>
-      <c r="L7">
-        <v>0.5</v>
-      </c>
-      <c r="M7" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7">
-        <v>3.7829999999999999</v>
-      </c>
-      <c r="O7">
-        <v>12.552</v>
-      </c>
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="E4" s="8"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="O4"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E16" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E167"/>
+  <dimension ref="A1:E247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -1168,19 +1009,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -1188,7 +1029,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <v>21.9</v>
@@ -1205,7 +1046,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C3">
         <v>22.1</v>
@@ -1222,7 +1063,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>22.8</v>
@@ -1239,7 +1080,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C5">
         <v>22.9</v>
@@ -1256,7 +1097,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>23</v>
@@ -1273,7 +1114,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>23</v>
@@ -1290,7 +1131,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>23.1</v>
@@ -1307,7 +1148,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C9">
         <v>23.1</v>
@@ -1324,7 +1165,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C10">
         <v>23.1</v>
@@ -1341,7 +1182,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>23.1</v>
@@ -1358,7 +1199,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C12">
         <v>23.1</v>
@@ -1375,7 +1216,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C13">
         <v>23</v>
@@ -1392,7 +1233,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C14">
         <v>23</v>
@@ -1409,7 +1250,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C15">
         <v>23</v>
@@ -1426,7 +1267,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C16">
         <v>22.9</v>
@@ -1443,7 +1284,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C17">
         <v>22.9</v>
@@ -1460,7 +1301,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C18">
         <v>22.9</v>
@@ -1477,7 +1318,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C19">
         <v>22.8</v>
@@ -1494,7 +1335,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C20">
         <v>15.3</v>
@@ -1511,7 +1352,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C21">
         <v>15</v>
@@ -1528,7 +1369,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C22">
         <v>14.7</v>
@@ -1545,7 +1386,7 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C23">
         <v>14.3</v>
@@ -1562,7 +1403,7 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C24">
         <v>14</v>
@@ -1579,7 +1420,7 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C25">
         <v>13.9</v>
@@ -1596,7 +1437,7 @@
         <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C26">
         <v>14</v>
@@ -1613,7 +1454,7 @@
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C27">
         <v>14.3</v>
@@ -1630,7 +1471,7 @@
         <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C28">
         <v>14.8</v>
@@ -1647,7 +1488,7 @@
         <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C29">
         <v>15.2</v>
@@ -1664,7 +1505,7 @@
         <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C30">
         <v>15.8</v>
@@ -1681,7 +1522,7 @@
         <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C31">
         <v>16.100000000000001</v>
@@ -1698,7 +1539,7 @@
         <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C32">
         <v>16.600000000000001</v>
@@ -1715,7 +1556,7 @@
         <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C33">
         <v>17</v>
@@ -1732,7 +1573,7 @@
         <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C34">
         <v>17.600000000000001</v>
@@ -1749,7 +1590,7 @@
         <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C35">
         <v>18</v>
@@ -1766,7 +1607,7 @@
         <v>19</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C36">
         <v>18.5</v>
@@ -1783,7 +1624,7 @@
         <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C37">
         <v>18.899999999999999</v>
@@ -1800,7 +1641,7 @@
         <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C38">
         <v>19.8</v>
@@ -1817,7 +1658,7 @@
         <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C39">
         <v>19.899999999999999</v>
@@ -1834,7 +1675,7 @@
         <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C40">
         <v>20.2</v>
@@ -1851,7 +1692,7 @@
         <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C41">
         <v>20.6</v>
@@ -1868,7 +1709,7 @@
         <v>19</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C42">
         <v>21</v>
@@ -1885,7 +1726,7 @@
         <v>19</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C43">
         <v>21.4</v>
@@ -1902,7 +1743,7 @@
         <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C44">
         <v>21.9</v>
@@ -1919,7 +1760,7 @@
         <v>19</v>
       </c>
       <c r="B45" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C45">
         <v>22.4</v>
@@ -1936,7 +1777,7 @@
         <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C46">
         <v>22.7</v>
@@ -1953,7 +1794,7 @@
         <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C47">
         <v>23.2</v>
@@ -1970,7 +1811,7 @@
         <v>19</v>
       </c>
       <c r="B48" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C48">
         <v>23.7</v>
@@ -1987,7 +1828,7 @@
         <v>19</v>
       </c>
       <c r="B49" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C49">
         <v>24</v>
@@ -2004,7 +1845,7 @@
         <v>19</v>
       </c>
       <c r="B50" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C50">
         <v>24.3</v>
@@ -2021,7 +1862,7 @@
         <v>19</v>
       </c>
       <c r="B51" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C51">
         <v>24.6</v>
@@ -2038,7 +1879,7 @@
         <v>19</v>
       </c>
       <c r="B52" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C52">
         <v>24.9</v>
@@ -2055,7 +1896,7 @@
         <v>19</v>
       </c>
       <c r="B53" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C53">
         <v>25.3</v>
@@ -2072,7 +1913,7 @@
         <v>19</v>
       </c>
       <c r="B54" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C54">
         <v>25.6</v>
@@ -2089,7 +1930,7 @@
         <v>19</v>
       </c>
       <c r="B55" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C55">
         <v>26</v>
@@ -2106,7 +1947,7 @@
         <v>19</v>
       </c>
       <c r="B56" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C56">
         <v>26.4</v>
@@ -2123,7 +1964,7 @@
         <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C57">
         <v>26.8</v>
@@ -2140,7 +1981,7 @@
         <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C58">
         <v>27.1</v>
@@ -2157,7 +1998,7 @@
         <v>19</v>
       </c>
       <c r="B59" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C59">
         <v>27.4</v>
@@ -2174,7 +2015,7 @@
         <v>19</v>
       </c>
       <c r="B60" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C60">
         <v>27.8</v>
@@ -2191,7 +2032,7 @@
         <v>19</v>
       </c>
       <c r="B61" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C61">
         <v>28.1</v>
@@ -2208,7 +2049,7 @@
         <v>19</v>
       </c>
       <c r="B62" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C62">
         <v>28.4</v>
@@ -2225,7 +2066,7 @@
         <v>19</v>
       </c>
       <c r="B63" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C63">
         <v>28.7</v>
@@ -2242,7 +2083,7 @@
         <v>19</v>
       </c>
       <c r="B64" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C64">
         <v>29</v>
@@ -2259,7 +2100,7 @@
         <v>19</v>
       </c>
       <c r="B65" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C65">
         <v>29.3</v>
@@ -2276,7 +2117,7 @@
         <v>19</v>
       </c>
       <c r="B66" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C66">
         <v>29.6</v>
@@ -2293,7 +2134,7 @@
         <v>19</v>
       </c>
       <c r="B67" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C67">
         <v>29.8</v>
@@ -2310,7 +2151,7 @@
         <v>19</v>
       </c>
       <c r="B68" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C68">
         <v>30.1</v>
@@ -2327,7 +2168,7 @@
         <v>19</v>
       </c>
       <c r="B69" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C69">
         <v>30.3</v>
@@ -2344,7 +2185,7 @@
         <v>19</v>
       </c>
       <c r="B70" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C70">
         <v>30.4</v>
@@ -2361,7 +2202,7 @@
         <v>19</v>
       </c>
       <c r="B71" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C71">
         <v>30.4</v>
@@ -2378,7 +2219,7 @@
         <v>19</v>
       </c>
       <c r="B72" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C72">
         <v>30.4</v>
@@ -2395,7 +2236,7 @@
         <v>19</v>
       </c>
       <c r="B73" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C73">
         <v>30.9</v>
@@ -2412,7 +2253,7 @@
         <v>19</v>
       </c>
       <c r="B74" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C74">
         <v>31.4</v>
@@ -2429,7 +2270,7 @@
         <v>19</v>
       </c>
       <c r="B75" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C75">
         <v>31.6</v>
@@ -2446,7 +2287,7 @@
         <v>19</v>
       </c>
       <c r="B76" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C76">
         <v>31.8</v>
@@ -2463,7 +2304,7 @@
         <v>19</v>
       </c>
       <c r="B77" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C77">
         <v>32</v>
@@ -2480,7 +2321,7 @@
         <v>19</v>
       </c>
       <c r="B78" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C78">
         <v>32.1</v>
@@ -2497,7 +2338,7 @@
         <v>19</v>
       </c>
       <c r="B79" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C79">
         <v>32.200000000000003</v>
@@ -2514,7 +2355,7 @@
         <v>19</v>
       </c>
       <c r="B80" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C80">
         <v>32.299999999999997</v>
@@ -2531,7 +2372,7 @@
         <v>19</v>
       </c>
       <c r="B81" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C81">
         <v>32.4</v>
@@ -2548,7 +2389,7 @@
         <v>19</v>
       </c>
       <c r="B82" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C82">
         <v>32.4</v>
@@ -2565,7 +2406,7 @@
         <v>19</v>
       </c>
       <c r="B83" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C83">
         <v>32.5</v>
@@ -2582,7 +2423,7 @@
         <v>19</v>
       </c>
       <c r="B84" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C84">
         <v>32.5</v>
@@ -2599,7 +2440,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C85">
         <v>32.6</v>
@@ -2616,7 +2457,7 @@
         <v>19</v>
       </c>
       <c r="B86" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C86">
         <v>15.3</v>
@@ -2633,7 +2474,7 @@
         <v>19</v>
       </c>
       <c r="B87" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C87">
         <v>15</v>
@@ -2650,7 +2491,7 @@
         <v>19</v>
       </c>
       <c r="B88" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C88">
         <v>14.7</v>
@@ -2667,7 +2508,7 @@
         <v>19</v>
       </c>
       <c r="B89" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C89">
         <v>14.3</v>
@@ -2684,7 +2525,7 @@
         <v>19</v>
       </c>
       <c r="B90" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C90">
         <v>14</v>
@@ -2701,7 +2542,7 @@
         <v>19</v>
       </c>
       <c r="B91" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C91">
         <v>13.9</v>
@@ -2718,7 +2559,7 @@
         <v>19</v>
       </c>
       <c r="B92" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C92">
         <v>14</v>
@@ -2735,7 +2576,7 @@
         <v>19</v>
       </c>
       <c r="B93" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C93">
         <v>14.3</v>
@@ -2752,7 +2593,7 @@
         <v>19</v>
       </c>
       <c r="B94" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C94">
         <v>14.8</v>
@@ -2769,7 +2610,7 @@
         <v>19</v>
       </c>
       <c r="B95" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C95">
         <v>15.2</v>
@@ -2786,7 +2627,7 @@
         <v>19</v>
       </c>
       <c r="B96" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C96">
         <v>15.8</v>
@@ -2803,7 +2644,7 @@
         <v>19</v>
       </c>
       <c r="B97" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C97">
         <v>16.100000000000001</v>
@@ -2820,7 +2661,7 @@
         <v>19</v>
       </c>
       <c r="B98" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C98">
         <v>16.600000000000001</v>
@@ -2837,7 +2678,7 @@
         <v>19</v>
       </c>
       <c r="B99" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C99">
         <v>17</v>
@@ -2854,7 +2695,7 @@
         <v>19</v>
       </c>
       <c r="B100" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C100">
         <v>17.600000000000001</v>
@@ -2871,7 +2712,7 @@
         <v>19</v>
       </c>
       <c r="B101" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C101">
         <v>18</v>
@@ -2888,7 +2729,7 @@
         <v>19</v>
       </c>
       <c r="B102" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C102">
         <v>18.5</v>
@@ -2905,7 +2746,7 @@
         <v>19</v>
       </c>
       <c r="B103" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C103">
         <v>18.899999999999999</v>
@@ -2922,7 +2763,7 @@
         <v>19</v>
       </c>
       <c r="B104" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C104">
         <v>19.8</v>
@@ -2939,7 +2780,7 @@
         <v>19</v>
       </c>
       <c r="B105" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C105">
         <v>19.899999999999999</v>
@@ -2956,7 +2797,7 @@
         <v>19</v>
       </c>
       <c r="B106" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C106">
         <v>20.2</v>
@@ -2973,7 +2814,7 @@
         <v>19</v>
       </c>
       <c r="B107" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C107">
         <v>20.6</v>
@@ -2990,7 +2831,7 @@
         <v>19</v>
       </c>
       <c r="B108" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C108">
         <v>21</v>
@@ -3007,7 +2848,7 @@
         <v>19</v>
       </c>
       <c r="B109" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C109">
         <v>21.4</v>
@@ -3024,7 +2865,7 @@
         <v>19</v>
       </c>
       <c r="B110" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C110">
         <v>21.9</v>
@@ -3041,7 +2882,7 @@
         <v>19</v>
       </c>
       <c r="B111" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C111">
         <v>22.4</v>
@@ -3058,7 +2899,7 @@
         <v>19</v>
       </c>
       <c r="B112" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C112">
         <v>22.7</v>
@@ -3075,7 +2916,7 @@
         <v>19</v>
       </c>
       <c r="B113" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C113">
         <v>23.2</v>
@@ -3092,7 +2933,7 @@
         <v>19</v>
       </c>
       <c r="B114" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C114">
         <v>23.7</v>
@@ -3109,7 +2950,7 @@
         <v>19</v>
       </c>
       <c r="B115" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C115">
         <v>24</v>
@@ -3126,7 +2967,7 @@
         <v>19</v>
       </c>
       <c r="B116" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C116">
         <v>24.3</v>
@@ -3143,7 +2984,7 @@
         <v>19</v>
       </c>
       <c r="B117" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C117">
         <v>24.6</v>
@@ -3160,7 +3001,7 @@
         <v>19</v>
       </c>
       <c r="B118" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C118">
         <v>24.9</v>
@@ -3177,7 +3018,7 @@
         <v>19</v>
       </c>
       <c r="B119" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C119">
         <v>25.3</v>
@@ -3194,7 +3035,7 @@
         <v>19</v>
       </c>
       <c r="B120" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C120">
         <v>25.6</v>
@@ -3211,7 +3052,7 @@
         <v>19</v>
       </c>
       <c r="B121" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C121">
         <v>26</v>
@@ -3228,7 +3069,7 @@
         <v>19</v>
       </c>
       <c r="B122" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C122">
         <v>26.4</v>
@@ -3245,7 +3086,7 @@
         <v>19</v>
       </c>
       <c r="B123" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C123">
         <v>26.8</v>
@@ -3262,7 +3103,7 @@
         <v>19</v>
       </c>
       <c r="B124" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C124">
         <v>27.1</v>
@@ -3279,7 +3120,7 @@
         <v>19</v>
       </c>
       <c r="B125" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C125">
         <v>27.4</v>
@@ -3296,7 +3137,7 @@
         <v>19</v>
       </c>
       <c r="B126" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C126">
         <v>27.8</v>
@@ -3313,7 +3154,7 @@
         <v>19</v>
       </c>
       <c r="B127" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C127">
         <v>28.1</v>
@@ -3330,7 +3171,7 @@
         <v>19</v>
       </c>
       <c r="B128" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C128">
         <v>28.4</v>
@@ -3347,7 +3188,7 @@
         <v>19</v>
       </c>
       <c r="B129" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C129">
         <v>28.7</v>
@@ -3364,7 +3205,7 @@
         <v>19</v>
       </c>
       <c r="B130" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C130">
         <v>29</v>
@@ -3381,7 +3222,7 @@
         <v>19</v>
       </c>
       <c r="B131" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C131">
         <v>29.3</v>
@@ -3398,7 +3239,7 @@
         <v>19</v>
       </c>
       <c r="B132" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C132">
         <v>29.6</v>
@@ -3415,7 +3256,7 @@
         <v>19</v>
       </c>
       <c r="B133" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C133">
         <v>29.8</v>
@@ -3432,7 +3273,7 @@
         <v>19</v>
       </c>
       <c r="B134" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C134">
         <v>30.1</v>
@@ -3449,7 +3290,7 @@
         <v>19</v>
       </c>
       <c r="B135" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C135">
         <v>30.3</v>
@@ -3466,7 +3307,7 @@
         <v>19</v>
       </c>
       <c r="B136" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C136">
         <v>30.4</v>
@@ -3483,7 +3324,7 @@
         <v>19</v>
       </c>
       <c r="B137" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C137">
         <v>30.4</v>
@@ -3500,7 +3341,7 @@
         <v>19</v>
       </c>
       <c r="B138" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C138">
         <v>30.4</v>
@@ -3517,7 +3358,7 @@
         <v>19</v>
       </c>
       <c r="B139" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C139">
         <v>30.9</v>
@@ -3534,7 +3375,7 @@
         <v>19</v>
       </c>
       <c r="B140" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C140">
         <v>31.4</v>
@@ -3551,7 +3392,7 @@
         <v>19</v>
       </c>
       <c r="B141" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C141">
         <v>31.6</v>
@@ -3568,7 +3409,7 @@
         <v>19</v>
       </c>
       <c r="B142" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C142">
         <v>31.8</v>
@@ -3585,7 +3426,7 @@
         <v>19</v>
       </c>
       <c r="B143" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C143">
         <v>32</v>
@@ -3602,7 +3443,7 @@
         <v>19</v>
       </c>
       <c r="B144" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C144">
         <v>32.1</v>
@@ -3619,7 +3460,7 @@
         <v>19</v>
       </c>
       <c r="B145" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C145">
         <v>32.200000000000003</v>
@@ -3636,7 +3477,7 @@
         <v>19</v>
       </c>
       <c r="B146" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C146">
         <v>32.299999999999997</v>
@@ -3653,7 +3494,7 @@
         <v>19</v>
       </c>
       <c r="B147" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C147">
         <v>32.4</v>
@@ -3670,7 +3511,7 @@
         <v>19</v>
       </c>
       <c r="B148" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C148">
         <v>32.4</v>
@@ -3687,7 +3528,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C149">
         <v>32.5</v>
@@ -3704,7 +3545,7 @@
         <v>19</v>
       </c>
       <c r="B150" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C150">
         <v>32.5</v>
@@ -3721,7 +3562,7 @@
         <v>19</v>
       </c>
       <c r="B151" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C151">
         <v>32.6</v>
@@ -3735,13 +3576,13 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="B152" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C152" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D152">
         <v>23.5</v>
@@ -3752,13 +3593,13 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="B153" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C153" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D153">
         <v>23.5</v>
@@ -3769,13 +3610,13 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="B154" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C154" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D154">
         <v>23.5</v>
@@ -3786,13 +3627,13 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="B155" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C155" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D155">
         <v>24</v>
@@ -3803,13 +3644,13 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="B156" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C156" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D156">
         <v>24</v>
@@ -3820,13 +3661,13 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="B157" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C157" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D157">
         <v>24</v>
@@ -3837,13 +3678,13 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="B158" t="s">
+        <v>114</v>
+      </c>
+      <c r="C158" t="s">
         <v>119</v>
-      </c>
-      <c r="C158" t="s">
-        <v>124</v>
       </c>
       <c r="D158">
         <v>24</v>
@@ -3854,13 +3695,13 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="B159" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C159" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D159">
         <v>24</v>
@@ -3871,10 +3712,10 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="B160" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C160">
         <v>23.5</v>
@@ -3888,10 +3729,10 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="B161" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C161">
         <v>23.5</v>
@@ -3905,10 +3746,10 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="B162" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C162">
         <v>23.5</v>
@@ -3922,10 +3763,10 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="B163" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C163">
         <v>24</v>
@@ -3939,10 +3780,10 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="B164" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C164">
         <v>24</v>
@@ -3956,10 +3797,10 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="B165" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C165">
         <v>24</v>
@@ -3973,10 +3814,10 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="B166" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C166">
         <v>24</v>
@@ -3990,18 +3831,1378 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
+        <v>110</v>
+      </c>
+      <c r="B167" t="s">
+        <v>120</v>
+      </c>
+      <c r="C167">
+        <v>24</v>
+      </c>
+      <c r="D167">
+        <v>24.5</v>
+      </c>
+      <c r="E167">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>110</v>
+      </c>
+      <c r="B168" t="s">
+        <v>112</v>
+      </c>
+      <c r="C168">
+        <v>23.5</v>
+      </c>
+      <c r="D168">
+        <v>23.75</v>
+      </c>
+      <c r="E168">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>110</v>
+      </c>
+      <c r="B169" t="s">
+        <v>113</v>
+      </c>
+      <c r="C169">
+        <v>23.5</v>
+      </c>
+      <c r="D169">
+        <v>23.75</v>
+      </c>
+      <c r="E169">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>110</v>
+      </c>
+      <c r="B170" t="s">
+        <v>115</v>
+      </c>
+      <c r="C170">
+        <v>23.5</v>
+      </c>
+      <c r="D170">
+        <v>23.25</v>
+      </c>
+      <c r="E170">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>110</v>
+      </c>
+      <c r="B171" t="s">
+        <v>116</v>
+      </c>
+      <c r="C171">
+        <v>24</v>
+      </c>
+      <c r="D171">
+        <v>24.5</v>
+      </c>
+      <c r="E171">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>110</v>
+      </c>
+      <c r="B172" t="s">
+        <v>117</v>
+      </c>
+      <c r="C172">
+        <v>24</v>
+      </c>
+      <c r="D172">
+        <v>24.5</v>
+      </c>
+      <c r="E172">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>110</v>
+      </c>
+      <c r="B173" t="s">
+        <v>118</v>
+      </c>
+      <c r="C173">
+        <v>24</v>
+      </c>
+      <c r="D173">
+        <v>24.5</v>
+      </c>
+      <c r="E173">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>110</v>
+      </c>
+      <c r="B174" t="s">
+        <v>119</v>
+      </c>
+      <c r="C174">
+        <v>24</v>
+      </c>
+      <c r="D174">
+        <v>24.5</v>
+      </c>
+      <c r="E174">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>110</v>
+      </c>
+      <c r="B175" t="s">
+        <v>120</v>
+      </c>
+      <c r="C175">
+        <v>24</v>
+      </c>
+      <c r="D175">
+        <v>24.5</v>
+      </c>
+      <c r="E175">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>110</v>
+      </c>
+      <c r="B176" t="s">
+        <v>112</v>
+      </c>
+      <c r="C176">
+        <v>23.5</v>
+      </c>
+      <c r="D176">
+        <v>23.75</v>
+      </c>
+      <c r="E176">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>110</v>
+      </c>
+      <c r="B177" t="s">
+        <v>113</v>
+      </c>
+      <c r="C177">
+        <v>23.5</v>
+      </c>
+      <c r="D177">
+        <v>23.75</v>
+      </c>
+      <c r="E177">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>110</v>
+      </c>
+      <c r="B178" t="s">
+        <v>115</v>
+      </c>
+      <c r="C178">
+        <v>23.5</v>
+      </c>
+      <c r="D178">
+        <v>23.25</v>
+      </c>
+      <c r="E178">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>110</v>
+      </c>
+      <c r="B179" t="s">
+        <v>116</v>
+      </c>
+      <c r="C179">
+        <v>24</v>
+      </c>
+      <c r="D179">
+        <v>24.5</v>
+      </c>
+      <c r="E179">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>110</v>
+      </c>
+      <c r="B180" t="s">
+        <v>117</v>
+      </c>
+      <c r="C180">
+        <v>24</v>
+      </c>
+      <c r="D180">
+        <v>24.5</v>
+      </c>
+      <c r="E180">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>110</v>
+      </c>
+      <c r="B181" t="s">
+        <v>118</v>
+      </c>
+      <c r="C181">
+        <v>24</v>
+      </c>
+      <c r="D181">
+        <v>24.5</v>
+      </c>
+      <c r="E181">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>110</v>
+      </c>
+      <c r="B182" t="s">
+        <v>119</v>
+      </c>
+      <c r="C182">
+        <v>24</v>
+      </c>
+      <c r="D182">
+        <v>24.5</v>
+      </c>
+      <c r="E182">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>110</v>
+      </c>
+      <c r="B183" t="s">
+        <v>120</v>
+      </c>
+      <c r="C183">
+        <v>24</v>
+      </c>
+      <c r="D183">
+        <v>24.5</v>
+      </c>
+      <c r="E183">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>110</v>
+      </c>
+      <c r="B184" t="s">
+        <v>112</v>
+      </c>
+      <c r="C184">
+        <v>23.5</v>
+      </c>
+      <c r="D184">
+        <v>23.75</v>
+      </c>
+      <c r="E184">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>110</v>
+      </c>
+      <c r="B185" t="s">
+        <v>113</v>
+      </c>
+      <c r="C185">
+        <v>23.5</v>
+      </c>
+      <c r="D185">
+        <v>23.75</v>
+      </c>
+      <c r="E185">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>110</v>
+      </c>
+      <c r="B186" t="s">
+        <v>115</v>
+      </c>
+      <c r="C186">
+        <v>23.5</v>
+      </c>
+      <c r="D186">
+        <v>23.25</v>
+      </c>
+      <c r="E186">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>110</v>
+      </c>
+      <c r="B187" t="s">
+        <v>116</v>
+      </c>
+      <c r="C187">
+        <v>24</v>
+      </c>
+      <c r="D187">
+        <v>24.5</v>
+      </c>
+      <c r="E187">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>110</v>
+      </c>
+      <c r="B188" t="s">
+        <v>117</v>
+      </c>
+      <c r="C188">
+        <v>24</v>
+      </c>
+      <c r="D188">
+        <v>24.5</v>
+      </c>
+      <c r="E188">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>110</v>
+      </c>
+      <c r="B189" t="s">
+        <v>118</v>
+      </c>
+      <c r="C189">
+        <v>24</v>
+      </c>
+      <c r="D189">
+        <v>24.5</v>
+      </c>
+      <c r="E189">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>110</v>
+      </c>
+      <c r="B190" t="s">
+        <v>119</v>
+      </c>
+      <c r="C190">
+        <v>24</v>
+      </c>
+      <c r="D190">
+        <v>24.5</v>
+      </c>
+      <c r="E190">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>110</v>
+      </c>
+      <c r="B191" t="s">
+        <v>120</v>
+      </c>
+      <c r="C191">
+        <v>24</v>
+      </c>
+      <c r="D191">
+        <v>24.5</v>
+      </c>
+      <c r="E191">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>110</v>
+      </c>
+      <c r="B192" t="s">
+        <v>112</v>
+      </c>
+      <c r="C192">
+        <v>23.5</v>
+      </c>
+      <c r="D192">
+        <v>23.75</v>
+      </c>
+      <c r="E192">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>110</v>
+      </c>
+      <c r="B193" t="s">
+        <v>113</v>
+      </c>
+      <c r="C193">
+        <v>23.5</v>
+      </c>
+      <c r="D193">
+        <v>23.75</v>
+      </c>
+      <c r="E193">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>110</v>
+      </c>
+      <c r="B194" t="s">
+        <v>115</v>
+      </c>
+      <c r="C194">
+        <v>23.5</v>
+      </c>
+      <c r="D194">
+        <v>23.25</v>
+      </c>
+      <c r="E194">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>110</v>
+      </c>
+      <c r="B195" t="s">
+        <v>116</v>
+      </c>
+      <c r="C195">
+        <v>24</v>
+      </c>
+      <c r="D195">
+        <v>24.5</v>
+      </c>
+      <c r="E195">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>110</v>
+      </c>
+      <c r="B196" t="s">
+        <v>117</v>
+      </c>
+      <c r="C196">
+        <v>24</v>
+      </c>
+      <c r="D196">
+        <v>24.5</v>
+      </c>
+      <c r="E196">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>110</v>
+      </c>
+      <c r="B197" t="s">
+        <v>118</v>
+      </c>
+      <c r="C197">
+        <v>24</v>
+      </c>
+      <c r="D197">
+        <v>24.5</v>
+      </c>
+      <c r="E197">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>110</v>
+      </c>
+      <c r="B198" t="s">
+        <v>119</v>
+      </c>
+      <c r="C198">
+        <v>24</v>
+      </c>
+      <c r="D198">
+        <v>24.5</v>
+      </c>
+      <c r="E198">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>110</v>
+      </c>
+      <c r="B199" t="s">
+        <v>120</v>
+      </c>
+      <c r="C199">
+        <v>24</v>
+      </c>
+      <c r="D199">
+        <v>24.5</v>
+      </c>
+      <c r="E199">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>110</v>
+      </c>
+      <c r="B200" t="s">
+        <v>112</v>
+      </c>
+      <c r="C200">
+        <v>23.5</v>
+      </c>
+      <c r="D200">
+        <v>23.75</v>
+      </c>
+      <c r="E200">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>110</v>
+      </c>
+      <c r="B201" t="s">
+        <v>113</v>
+      </c>
+      <c r="C201">
+        <v>23.5</v>
+      </c>
+      <c r="D201">
+        <v>23.75</v>
+      </c>
+      <c r="E201">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>110</v>
+      </c>
+      <c r="B202" t="s">
+        <v>115</v>
+      </c>
+      <c r="C202">
+        <v>23.5</v>
+      </c>
+      <c r="D202">
+        <v>23.25</v>
+      </c>
+      <c r="E202">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>110</v>
+      </c>
+      <c r="B203" t="s">
+        <v>116</v>
+      </c>
+      <c r="C203">
+        <v>24</v>
+      </c>
+      <c r="D203">
+        <v>24.5</v>
+      </c>
+      <c r="E203">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>110</v>
+      </c>
+      <c r="B204" t="s">
+        <v>117</v>
+      </c>
+      <c r="C204">
+        <v>24</v>
+      </c>
+      <c r="D204">
+        <v>24.5</v>
+      </c>
+      <c r="E204">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>110</v>
+      </c>
+      <c r="B205" t="s">
+        <v>118</v>
+      </c>
+      <c r="C205">
+        <v>24</v>
+      </c>
+      <c r="D205">
+        <v>24.5</v>
+      </c>
+      <c r="E205">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>110</v>
+      </c>
+      <c r="B206" t="s">
+        <v>119</v>
+      </c>
+      <c r="C206">
+        <v>24</v>
+      </c>
+      <c r="D206">
+        <v>24.5</v>
+      </c>
+      <c r="E206">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>110</v>
+      </c>
+      <c r="B207" t="s">
+        <v>120</v>
+      </c>
+      <c r="C207">
+        <v>24</v>
+      </c>
+      <c r="D207">
+        <v>24.5</v>
+      </c>
+      <c r="E207">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>110</v>
+      </c>
+      <c r="B208" t="s">
+        <v>112</v>
+      </c>
+      <c r="C208">
+        <v>23.5</v>
+      </c>
+      <c r="D208">
+        <v>23.75</v>
+      </c>
+      <c r="E208">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>110</v>
+      </c>
+      <c r="B209" t="s">
+        <v>113</v>
+      </c>
+      <c r="C209">
+        <v>23.5</v>
+      </c>
+      <c r="D209">
+        <v>23.75</v>
+      </c>
+      <c r="E209">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>110</v>
+      </c>
+      <c r="B210" t="s">
+        <v>115</v>
+      </c>
+      <c r="C210">
+        <v>23.5</v>
+      </c>
+      <c r="D210">
+        <v>23.25</v>
+      </c>
+      <c r="E210">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>110</v>
+      </c>
+      <c r="B211" t="s">
+        <v>116</v>
+      </c>
+      <c r="C211">
+        <v>24</v>
+      </c>
+      <c r="D211">
+        <v>24.5</v>
+      </c>
+      <c r="E211">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>110</v>
+      </c>
+      <c r="B212" t="s">
+        <v>117</v>
+      </c>
+      <c r="C212">
+        <v>24</v>
+      </c>
+      <c r="D212">
+        <v>24.5</v>
+      </c>
+      <c r="E212">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>110</v>
+      </c>
+      <c r="B213" t="s">
+        <v>118</v>
+      </c>
+      <c r="C213">
+        <v>24</v>
+      </c>
+      <c r="D213">
+        <v>24.5</v>
+      </c>
+      <c r="E213">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>110</v>
+      </c>
+      <c r="B214" t="s">
+        <v>119</v>
+      </c>
+      <c r="C214">
+        <v>24</v>
+      </c>
+      <c r="D214">
+        <v>24.5</v>
+      </c>
+      <c r="E214">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>110</v>
+      </c>
+      <c r="B215" t="s">
+        <v>120</v>
+      </c>
+      <c r="C215">
+        <v>24</v>
+      </c>
+      <c r="D215">
+        <v>24.5</v>
+      </c>
+      <c r="E215">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>110</v>
+      </c>
+      <c r="B216" t="s">
+        <v>112</v>
+      </c>
+      <c r="C216">
+        <v>23.5</v>
+      </c>
+      <c r="D216">
+        <v>23.75</v>
+      </c>
+      <c r="E216">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>110</v>
+      </c>
+      <c r="B217" t="s">
+        <v>113</v>
+      </c>
+      <c r="C217">
+        <v>23.5</v>
+      </c>
+      <c r="D217">
+        <v>23.75</v>
+      </c>
+      <c r="E217">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>110</v>
+      </c>
+      <c r="B218" t="s">
+        <v>115</v>
+      </c>
+      <c r="C218">
+        <v>23.5</v>
+      </c>
+      <c r="D218">
+        <v>23.25</v>
+      </c>
+      <c r="E218">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>110</v>
+      </c>
+      <c r="B219" t="s">
+        <v>116</v>
+      </c>
+      <c r="C219">
+        <v>24</v>
+      </c>
+      <c r="D219">
+        <v>24.5</v>
+      </c>
+      <c r="E219">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>110</v>
+      </c>
+      <c r="B220" t="s">
+        <v>117</v>
+      </c>
+      <c r="C220">
+        <v>24</v>
+      </c>
+      <c r="D220">
+        <v>24.5</v>
+      </c>
+      <c r="E220">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>110</v>
+      </c>
+      <c r="B221" t="s">
+        <v>118</v>
+      </c>
+      <c r="C221">
+        <v>24</v>
+      </c>
+      <c r="D221">
+        <v>24.5</v>
+      </c>
+      <c r="E221">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>110</v>
+      </c>
+      <c r="B222" t="s">
+        <v>119</v>
+      </c>
+      <c r="C222">
+        <v>24</v>
+      </c>
+      <c r="D222">
+        <v>24.5</v>
+      </c>
+      <c r="E222">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>110</v>
+      </c>
+      <c r="B223" t="s">
+        <v>120</v>
+      </c>
+      <c r="C223">
+        <v>24</v>
+      </c>
+      <c r="D223">
+        <v>24.5</v>
+      </c>
+      <c r="E223">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
         <v>20</v>
       </c>
-      <c r="B167" t="s">
-        <v>125</v>
-      </c>
-      <c r="C167">
-        <v>24</v>
-      </c>
-      <c r="D167">
-        <v>24.5</v>
-      </c>
-      <c r="E167">
+      <c r="B224" t="s">
+        <v>112</v>
+      </c>
+      <c r="C224">
+        <v>23.5</v>
+      </c>
+      <c r="D224">
+        <v>23.75</v>
+      </c>
+      <c r="E224">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>20</v>
+      </c>
+      <c r="B225" t="s">
+        <v>113</v>
+      </c>
+      <c r="C225">
+        <v>23.5</v>
+      </c>
+      <c r="D225">
+        <v>23.75</v>
+      </c>
+      <c r="E225">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>20</v>
+      </c>
+      <c r="B226" t="s">
+        <v>115</v>
+      </c>
+      <c r="C226">
+        <v>23.5</v>
+      </c>
+      <c r="D226">
+        <v>23.25</v>
+      </c>
+      <c r="E226">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>20</v>
+      </c>
+      <c r="B227" t="s">
+        <v>116</v>
+      </c>
+      <c r="C227">
+        <v>24</v>
+      </c>
+      <c r="D227">
+        <v>24.5</v>
+      </c>
+      <c r="E227">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>20</v>
+      </c>
+      <c r="B228" t="s">
+        <v>117</v>
+      </c>
+      <c r="C228">
+        <v>24</v>
+      </c>
+      <c r="D228">
+        <v>24.5</v>
+      </c>
+      <c r="E228">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>20</v>
+      </c>
+      <c r="B229" t="s">
+        <v>118</v>
+      </c>
+      <c r="C229">
+        <v>24</v>
+      </c>
+      <c r="D229">
+        <v>24.5</v>
+      </c>
+      <c r="E229">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>20</v>
+      </c>
+      <c r="B230" t="s">
+        <v>119</v>
+      </c>
+      <c r="C230">
+        <v>24</v>
+      </c>
+      <c r="D230">
+        <v>24.5</v>
+      </c>
+      <c r="E230">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>20</v>
+      </c>
+      <c r="B231" t="s">
+        <v>120</v>
+      </c>
+      <c r="C231">
+        <v>24</v>
+      </c>
+      <c r="D231">
+        <v>24.5</v>
+      </c>
+      <c r="E231">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>20</v>
+      </c>
+      <c r="B232" t="s">
+        <v>112</v>
+      </c>
+      <c r="C232">
+        <v>23.5</v>
+      </c>
+      <c r="D232">
+        <v>23.75</v>
+      </c>
+      <c r="E232">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>20</v>
+      </c>
+      <c r="B233" t="s">
+        <v>113</v>
+      </c>
+      <c r="C233">
+        <v>23.5</v>
+      </c>
+      <c r="D233">
+        <v>23.75</v>
+      </c>
+      <c r="E233">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>20</v>
+      </c>
+      <c r="B234" t="s">
+        <v>115</v>
+      </c>
+      <c r="C234">
+        <v>23.5</v>
+      </c>
+      <c r="D234">
+        <v>23.25</v>
+      </c>
+      <c r="E234">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>20</v>
+      </c>
+      <c r="B235" t="s">
+        <v>116</v>
+      </c>
+      <c r="C235">
+        <v>24</v>
+      </c>
+      <c r="D235">
+        <v>24.5</v>
+      </c>
+      <c r="E235">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>20</v>
+      </c>
+      <c r="B236" t="s">
+        <v>117</v>
+      </c>
+      <c r="C236">
+        <v>24</v>
+      </c>
+      <c r="D236">
+        <v>24.5</v>
+      </c>
+      <c r="E236">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>20</v>
+      </c>
+      <c r="B237" t="s">
+        <v>118</v>
+      </c>
+      <c r="C237">
+        <v>24</v>
+      </c>
+      <c r="D237">
+        <v>24.5</v>
+      </c>
+      <c r="E237">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>20</v>
+      </c>
+      <c r="B238" t="s">
+        <v>119</v>
+      </c>
+      <c r="C238">
+        <v>24</v>
+      </c>
+      <c r="D238">
+        <v>24.5</v>
+      </c>
+      <c r="E238">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>20</v>
+      </c>
+      <c r="B239" t="s">
+        <v>120</v>
+      </c>
+      <c r="C239">
+        <v>24</v>
+      </c>
+      <c r="D239">
+        <v>24.5</v>
+      </c>
+      <c r="E239">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>20</v>
+      </c>
+      <c r="B240" t="s">
+        <v>112</v>
+      </c>
+      <c r="C240">
+        <v>23.5</v>
+      </c>
+      <c r="D240">
+        <v>23.75</v>
+      </c>
+      <c r="E240">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>20</v>
+      </c>
+      <c r="B241" t="s">
+        <v>113</v>
+      </c>
+      <c r="C241">
+        <v>23.5</v>
+      </c>
+      <c r="D241">
+        <v>23.75</v>
+      </c>
+      <c r="E241">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>20</v>
+      </c>
+      <c r="B242" t="s">
+        <v>115</v>
+      </c>
+      <c r="C242">
+        <v>23.5</v>
+      </c>
+      <c r="D242">
+        <v>23.25</v>
+      </c>
+      <c r="E242">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>20</v>
+      </c>
+      <c r="B243" t="s">
+        <v>116</v>
+      </c>
+      <c r="C243">
+        <v>24</v>
+      </c>
+      <c r="D243">
+        <v>24.5</v>
+      </c>
+      <c r="E243">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>20</v>
+      </c>
+      <c r="B244" t="s">
+        <v>117</v>
+      </c>
+      <c r="C244">
+        <v>24</v>
+      </c>
+      <c r="D244">
+        <v>24.5</v>
+      </c>
+      <c r="E244">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>20</v>
+      </c>
+      <c r="B245" t="s">
+        <v>118</v>
+      </c>
+      <c r="C245">
+        <v>24</v>
+      </c>
+      <c r="D245">
+        <v>24.5</v>
+      </c>
+      <c r="E245">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>20</v>
+      </c>
+      <c r="B246" t="s">
+        <v>119</v>
+      </c>
+      <c r="C246">
+        <v>24</v>
+      </c>
+      <c r="D246">
+        <v>24.5</v>
+      </c>
+      <c r="E246">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>20</v>
+      </c>
+      <c r="B247" t="s">
+        <v>120</v>
+      </c>
+      <c r="C247">
+        <v>24</v>
+      </c>
+      <c r="D247">
+        <v>24.5</v>
+      </c>
+      <c r="E247">
         <v>85</v>
       </c>
     </row>

--- a/Python Heat Transfer Analysis/solarData.xlsx
+++ b/Python Heat Transfer Analysis/solarData.xlsx
@@ -5,23 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johnathan Trab\Documents\GitHub\autotemplogger\Python Heat Transfer Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtran\Documents\GitHub\autotemplogger\Python Heat Transfer Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B3C4A6-AF9F-4E1C-BBDD-282D4D62E9BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD58508-574D-4233-A406-983235595483}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Analysis_Results" sheetId="1" r:id="rId1"/>
+    <sheet name="Raw_Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="110">
   <si>
     <t>Testing Date</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>17:57:00</t>
+  </si>
+  <si>
+    <t>12/1/2019</t>
   </si>
   <si>
     <t>08:50:00</t>
@@ -429,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -443,6 +446,8 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -761,23 +766,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="16.140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="18.453125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="10.1796875" style="4" customWidth="1"/>
+    <col min="16" max="16" width="16.1796875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="89.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="89.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -825,7 +830,7 @@
       </c>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -869,7 +874,7 @@
         <v>0.502</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -913,41 +918,44 @@
         <v>7.2380000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4"/>
       <c r="B4"/>
-      <c r="E4" s="8"/>
+      <c r="E4" s="10"/>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
       <c r="O4"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E16" s="7"/>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E5" s="9"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E16" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -957,21 +965,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E247"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86:E91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -987,8 +996,10 @@
       <c r="E1" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H1" s="7"/>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1004,8 +1015,10 @@
       <c r="E2">
         <v>21.6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H2" s="7"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1021,8 +1034,10 @@
       <c r="E3">
         <v>21.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H3" s="7"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1038,8 +1053,10 @@
       <c r="E4">
         <v>21.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H4" s="7"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1055,8 +1072,10 @@
       <c r="E5">
         <v>21.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H5" s="7"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1072,8 +1091,10 @@
       <c r="E6">
         <v>21.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H6" s="7"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1089,8 +1110,10 @@
       <c r="E7">
         <v>21.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H7" s="7"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1106,8 +1129,10 @@
       <c r="E8">
         <v>21.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H8" s="7"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1123,8 +1148,10 @@
       <c r="E9">
         <v>21.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H9" s="7"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1140,8 +1167,10 @@
       <c r="E10">
         <v>21.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H10" s="7"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1157,8 +1186,10 @@
       <c r="E11">
         <v>21.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H11" s="7"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1174,8 +1205,10 @@
       <c r="E12">
         <v>21.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H12" s="7"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1191,8 +1224,10 @@
       <c r="E13">
         <v>20.399999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H13" s="7"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1208,8 +1243,10 @@
       <c r="E14">
         <v>20.8</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H14" s="7"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1225,8 +1262,10 @@
       <c r="E15">
         <v>21.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H15" s="7"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1242,8 +1281,10 @@
       <c r="E16">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H16" s="7"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1259,8 +1300,10 @@
       <c r="E17">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H17" s="7"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1276,8 +1319,10 @@
       <c r="E18">
         <v>21.2</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H18" s="7"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1293,13 +1338,15 @@
       <c r="E19">
         <v>21.9</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H19" s="7"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20">
         <v>15.3</v>
@@ -1310,13 +1357,15 @@
       <c r="E20">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H20" s="7"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21">
         <v>15</v>
@@ -1327,13 +1376,15 @@
       <c r="E21">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H21" s="7"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22">
         <v>14.7</v>
@@ -1344,13 +1395,15 @@
       <c r="E22">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H22" s="7"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23">
         <v>14.3</v>
@@ -1361,13 +1414,15 @@
       <c r="E23">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H23" s="7"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C24">
         <v>14</v>
@@ -1378,13 +1433,15 @@
       <c r="E24">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H24" s="7"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C25">
         <v>13.9</v>
@@ -1395,13 +1452,15 @@
       <c r="E25">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H25" s="7"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26">
         <v>14</v>
@@ -1412,13 +1471,15 @@
       <c r="E26">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H26" s="7"/>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C27">
         <v>14.3</v>
@@ -1429,13 +1490,15 @@
       <c r="E27">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H27" s="7"/>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C28">
         <v>14.8</v>
@@ -1446,13 +1509,15 @@
       <c r="E28">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H28" s="7"/>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C29">
         <v>15.2</v>
@@ -1463,13 +1528,15 @@
       <c r="E29">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H29" s="7"/>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C30">
         <v>15.8</v>
@@ -1480,13 +1547,15 @@
       <c r="E30">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H30" s="7"/>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C31">
         <v>16.100000000000001</v>
@@ -1497,13 +1566,15 @@
       <c r="E31">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H31" s="7"/>
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C32">
         <v>16.600000000000001</v>
@@ -1514,13 +1585,15 @@
       <c r="E32">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H32" s="7"/>
+      <c r="J32" s="8"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C33">
         <v>17</v>
@@ -1531,13 +1604,15 @@
       <c r="E33">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H33" s="7"/>
+      <c r="J33" s="8"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C34">
         <v>17.600000000000001</v>
@@ -1548,13 +1623,15 @@
       <c r="E34">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H34" s="7"/>
+      <c r="J34" s="8"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C35">
         <v>18</v>
@@ -1565,13 +1642,15 @@
       <c r="E35">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H35" s="7"/>
+      <c r="J35" s="8"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C36">
         <v>18.5</v>
@@ -1582,13 +1661,15 @@
       <c r="E36">
         <v>14</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H36" s="7"/>
+      <c r="J36" s="8"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C37">
         <v>18.899999999999999</v>
@@ -1599,13 +1680,15 @@
       <c r="E37">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H37" s="7"/>
+      <c r="J37" s="8"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C38">
         <v>19.8</v>
@@ -1616,13 +1699,15 @@
       <c r="E38">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H38" s="7"/>
+      <c r="J38" s="8"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C39">
         <v>19.899999999999999</v>
@@ -1633,13 +1718,15 @@
       <c r="E39">
         <v>17</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H39" s="7"/>
+      <c r="J39" s="8"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C40">
         <v>20.2</v>
@@ -1650,13 +1737,15 @@
       <c r="E40">
         <v>19.7</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H40" s="7"/>
+      <c r="J40" s="8"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C41">
         <v>20.6</v>
@@ -1667,13 +1756,15 @@
       <c r="E41">
         <v>20</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H41" s="7"/>
+      <c r="J41" s="8"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C42">
         <v>21</v>
@@ -1684,13 +1775,15 @@
       <c r="E42">
         <v>20.9</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H42" s="7"/>
+      <c r="J42" s="8"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C43">
         <v>21.4</v>
@@ -1701,13 +1794,15 @@
       <c r="E43">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H43" s="7"/>
+      <c r="J43" s="8"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C44">
         <v>21.9</v>
@@ -1718,13 +1813,15 @@
       <c r="E44">
         <v>22.4</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H44" s="7"/>
+      <c r="J44" s="8"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C45">
         <v>22.4</v>
@@ -1735,13 +1832,15 @@
       <c r="E45">
         <v>21.9</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H45" s="7"/>
+      <c r="J45" s="8"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C46">
         <v>22.7</v>
@@ -1752,13 +1851,15 @@
       <c r="E46">
         <v>22.1</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H46" s="7"/>
+      <c r="J46" s="8"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C47">
         <v>23.2</v>
@@ -1769,13 +1870,15 @@
       <c r="E47">
         <v>23.2</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H47" s="7"/>
+      <c r="J47" s="8"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C48">
         <v>23.7</v>
@@ -1786,13 +1889,15 @@
       <c r="E48">
         <v>24.7</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H48" s="7"/>
+      <c r="J48" s="8"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C49">
         <v>24</v>
@@ -1803,13 +1908,15 @@
       <c r="E49">
         <v>24.6</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H49" s="7"/>
+      <c r="J49" s="8"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C50">
         <v>24.3</v>
@@ -1820,13 +1927,15 @@
       <c r="E50">
         <v>22</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H50" s="7"/>
+      <c r="J50" s="8"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B51" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C51">
         <v>24.6</v>
@@ -1837,13 +1946,15 @@
       <c r="E51">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H51" s="7"/>
+      <c r="J51" s="8"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C52">
         <v>24.9</v>
@@ -1854,13 +1965,15 @@
       <c r="E52">
         <v>21.7</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H52" s="7"/>
+      <c r="J52" s="8"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C53">
         <v>25.3</v>
@@ -1872,12 +1985,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C54">
         <v>25.6</v>
@@ -1889,12 +2002,12 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B55" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C55">
         <v>26</v>
@@ -1906,12 +2019,12 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B56" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C56">
         <v>26.4</v>
@@ -1923,12 +2036,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B57" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C57">
         <v>26.8</v>
@@ -1940,12 +2053,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B58" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C58">
         <v>27.1</v>
@@ -1957,12 +2070,12 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B59" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C59">
         <v>27.4</v>
@@ -1974,12 +2087,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B60" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C60">
         <v>27.8</v>
@@ -1991,12 +2104,12 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B61" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C61">
         <v>28.1</v>
@@ -2008,12 +2121,12 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B62" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C62">
         <v>28.4</v>
@@ -2025,12 +2138,12 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B63" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C63">
         <v>28.7</v>
@@ -2042,12 +2155,12 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B64" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C64">
         <v>29</v>
@@ -2059,12 +2172,12 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B65" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C65">
         <v>29.3</v>
@@ -2076,12 +2189,12 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B66" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C66">
         <v>29.6</v>
@@ -2093,12 +2206,12 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B67" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C67">
         <v>29.8</v>
@@ -2110,12 +2223,12 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B68" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C68">
         <v>30.1</v>
@@ -2127,12 +2240,12 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B69" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C69">
         <v>30.3</v>
@@ -2144,12 +2257,12 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B70" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C70">
         <v>30.4</v>
@@ -2161,12 +2274,12 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B71" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C71">
         <v>30.4</v>
@@ -2178,12 +2291,12 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B72" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C72">
         <v>30.4</v>
@@ -2195,12 +2308,12 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B73" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C73">
         <v>30.9</v>
@@ -2212,12 +2325,12 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B74" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C74">
         <v>31.4</v>
@@ -2229,12 +2342,12 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B75" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C75">
         <v>31.6</v>
@@ -2246,12 +2359,12 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B76" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C76">
         <v>31.8</v>
@@ -2263,12 +2376,12 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B77" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C77">
         <v>32</v>
@@ -2280,12 +2393,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B78" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C78">
         <v>32.1</v>
@@ -2297,12 +2410,12 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B79" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C79">
         <v>32.200000000000003</v>
@@ -2314,12 +2427,12 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B80" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C80">
         <v>32.299999999999997</v>
@@ -2331,12 +2444,12 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B81" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C81">
         <v>32.4</v>
@@ -2348,12 +2461,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B82" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C82">
         <v>32.4</v>
@@ -2365,12 +2478,12 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B83" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C83">
         <v>32.5</v>
@@ -2382,12 +2495,12 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B84" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C84">
         <v>32.5</v>
@@ -2399,12 +2512,12 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B85" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C85">
         <v>32.6</v>
@@ -2416,1140 +2529,48 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
       <c r="D86"/>
       <c r="E86"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
       <c r="D87"/>
       <c r="E87"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
       <c r="D88"/>
       <c r="E88"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
       <c r="D89"/>
       <c r="E89"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
       <c r="D90"/>
       <c r="E90"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
       <c r="D91"/>
       <c r="E91"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92"/>
-      <c r="B92"/>
-      <c r="C92"/>
-      <c r="D92"/>
-      <c r="E92"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93"/>
-      <c r="B93"/>
-      <c r="C93"/>
-      <c r="D93"/>
-      <c r="E93"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94"/>
-      <c r="B94"/>
-      <c r="C94"/>
-      <c r="D94"/>
-      <c r="E94"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95"/>
-      <c r="B95"/>
-      <c r="C95"/>
-      <c r="D95"/>
-      <c r="E95"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96"/>
-      <c r="B96"/>
-      <c r="C96"/>
-      <c r="D96"/>
-      <c r="E96"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97"/>
-      <c r="B97"/>
-      <c r="C97"/>
-      <c r="D97"/>
-      <c r="E97"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98"/>
-      <c r="B98"/>
-      <c r="C98"/>
-      <c r="D98"/>
-      <c r="E98"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99"/>
-      <c r="B99"/>
-      <c r="C99"/>
-      <c r="D99"/>
-      <c r="E99"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100"/>
-      <c r="B100"/>
-      <c r="C100"/>
-      <c r="D100"/>
-      <c r="E100"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101"/>
-      <c r="B101"/>
-      <c r="C101"/>
-      <c r="D101"/>
-      <c r="E101"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102"/>
-      <c r="B102"/>
-      <c r="C102"/>
-      <c r="D102"/>
-      <c r="E102"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103"/>
-      <c r="B103"/>
-      <c r="C103"/>
-      <c r="D103"/>
-      <c r="E103"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104"/>
-      <c r="B104"/>
-      <c r="C104"/>
-      <c r="D104"/>
-      <c r="E104"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105"/>
-      <c r="B105"/>
-      <c r="C105"/>
-      <c r="D105"/>
-      <c r="E105"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106"/>
-      <c r="B106"/>
-      <c r="C106"/>
-      <c r="D106"/>
-      <c r="E106"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107"/>
-      <c r="B107"/>
-      <c r="C107"/>
-      <c r="D107"/>
-      <c r="E107"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108"/>
-      <c r="B108"/>
-      <c r="C108"/>
-      <c r="D108"/>
-      <c r="E108"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109"/>
-      <c r="B109"/>
-      <c r="C109"/>
-      <c r="D109"/>
-      <c r="E109"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110"/>
-      <c r="B110"/>
-      <c r="C110"/>
-      <c r="D110"/>
-      <c r="E110"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111"/>
-      <c r="B111"/>
-      <c r="C111"/>
-      <c r="D111"/>
-      <c r="E111"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112"/>
-      <c r="B112"/>
-      <c r="C112"/>
-      <c r="D112"/>
-      <c r="E112"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113"/>
-      <c r="B113"/>
-      <c r="C113"/>
-      <c r="D113"/>
-      <c r="E113"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114"/>
-      <c r="B114"/>
-      <c r="C114"/>
-      <c r="D114"/>
-      <c r="E114"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115"/>
-      <c r="B115"/>
-      <c r="C115"/>
-      <c r="D115"/>
-      <c r="E115"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116"/>
-      <c r="B116"/>
-      <c r="C116"/>
-      <c r="D116"/>
-      <c r="E116"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117"/>
-      <c r="B117"/>
-      <c r="C117"/>
-      <c r="D117"/>
-      <c r="E117"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118"/>
-      <c r="B118"/>
-      <c r="C118"/>
-      <c r="D118"/>
-      <c r="E118"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119"/>
-      <c r="B119"/>
-      <c r="C119"/>
-      <c r="D119"/>
-      <c r="E119"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120"/>
-      <c r="B120"/>
-      <c r="C120"/>
-      <c r="D120"/>
-      <c r="E120"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121"/>
-      <c r="B121"/>
-      <c r="C121"/>
-      <c r="D121"/>
-      <c r="E121"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122"/>
-      <c r="B122"/>
-      <c r="C122"/>
-      <c r="D122"/>
-      <c r="E122"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123"/>
-      <c r="B123"/>
-      <c r="C123"/>
-      <c r="D123"/>
-      <c r="E123"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124"/>
-      <c r="B124"/>
-      <c r="C124"/>
-      <c r="D124"/>
-      <c r="E124"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125"/>
-      <c r="B125"/>
-      <c r="C125"/>
-      <c r="D125"/>
-      <c r="E125"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126"/>
-      <c r="B126"/>
-      <c r="C126"/>
-      <c r="D126"/>
-      <c r="E126"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127"/>
-      <c r="B127"/>
-      <c r="C127"/>
-      <c r="D127"/>
-      <c r="E127"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128"/>
-      <c r="B128"/>
-      <c r="C128"/>
-      <c r="D128"/>
-      <c r="E128"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129"/>
-      <c r="B129"/>
-      <c r="C129"/>
-      <c r="D129"/>
-      <c r="E129"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130"/>
-      <c r="B130"/>
-      <c r="C130"/>
-      <c r="D130"/>
-      <c r="E130"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131"/>
-      <c r="B131"/>
-      <c r="C131"/>
-      <c r="D131"/>
-      <c r="E131"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132"/>
-      <c r="B132"/>
-      <c r="C132"/>
-      <c r="D132"/>
-      <c r="E132"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133"/>
-      <c r="B133"/>
-      <c r="C133"/>
-      <c r="D133"/>
-      <c r="E133"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134"/>
-      <c r="B134"/>
-      <c r="C134"/>
-      <c r="D134"/>
-      <c r="E134"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135"/>
-      <c r="B135"/>
-      <c r="C135"/>
-      <c r="D135"/>
-      <c r="E135"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136"/>
-      <c r="B136"/>
-      <c r="C136"/>
-      <c r="D136"/>
-      <c r="E136"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137"/>
-      <c r="B137"/>
-      <c r="C137"/>
-      <c r="D137"/>
-      <c r="E137"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138"/>
-      <c r="B138"/>
-      <c r="C138"/>
-      <c r="D138"/>
-      <c r="E138"/>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139"/>
-      <c r="B139"/>
-      <c r="C139"/>
-      <c r="D139"/>
-      <c r="E139"/>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140"/>
-      <c r="B140"/>
-      <c r="C140"/>
-      <c r="D140"/>
-      <c r="E140"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141"/>
-      <c r="B141"/>
-      <c r="C141"/>
-      <c r="D141"/>
-      <c r="E141"/>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142"/>
-      <c r="B142"/>
-      <c r="C142"/>
-      <c r="D142"/>
-      <c r="E142"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143"/>
-      <c r="B143"/>
-      <c r="C143"/>
-      <c r="D143"/>
-      <c r="E143"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144"/>
-      <c r="B144"/>
-      <c r="C144"/>
-      <c r="D144"/>
-      <c r="E144"/>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145"/>
-      <c r="B145"/>
-      <c r="C145"/>
-      <c r="D145"/>
-      <c r="E145"/>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146"/>
-      <c r="B146"/>
-      <c r="C146"/>
-      <c r="D146"/>
-      <c r="E146"/>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147"/>
-      <c r="B147"/>
-      <c r="C147"/>
-      <c r="D147"/>
-      <c r="E147"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148"/>
-      <c r="B148"/>
-      <c r="C148"/>
-      <c r="D148"/>
-      <c r="E148"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149"/>
-      <c r="B149"/>
-      <c r="C149"/>
-      <c r="D149"/>
-      <c r="E149"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150"/>
-      <c r="B150"/>
-      <c r="C150"/>
-      <c r="D150"/>
-      <c r="E150"/>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151"/>
-      <c r="B151"/>
-      <c r="C151"/>
-      <c r="D151"/>
-      <c r="E151"/>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152"/>
-      <c r="B152"/>
-      <c r="C152"/>
-      <c r="D152"/>
-      <c r="E152"/>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153"/>
-      <c r="B153"/>
-      <c r="C153"/>
-      <c r="D153"/>
-      <c r="E153"/>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154"/>
-      <c r="B154"/>
-      <c r="C154"/>
-      <c r="D154"/>
-      <c r="E154"/>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155"/>
-      <c r="B155"/>
-      <c r="C155"/>
-      <c r="D155"/>
-      <c r="E155"/>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156"/>
-      <c r="B156"/>
-      <c r="C156"/>
-      <c r="D156"/>
-      <c r="E156"/>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157"/>
-      <c r="B157"/>
-      <c r="C157"/>
-      <c r="D157"/>
-      <c r="E157"/>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158"/>
-      <c r="B158"/>
-      <c r="C158"/>
-      <c r="D158"/>
-      <c r="E158"/>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159"/>
-      <c r="B159"/>
-      <c r="C159"/>
-      <c r="D159"/>
-      <c r="E159"/>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160"/>
-      <c r="B160"/>
-      <c r="C160"/>
-      <c r="D160"/>
-      <c r="E160"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161"/>
-      <c r="B161"/>
-      <c r="C161"/>
-      <c r="D161"/>
-      <c r="E161"/>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162"/>
-      <c r="B162"/>
-      <c r="C162"/>
-      <c r="D162"/>
-      <c r="E162"/>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163"/>
-      <c r="B163"/>
-      <c r="C163"/>
-      <c r="D163"/>
-      <c r="E163"/>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164"/>
-      <c r="B164"/>
-      <c r="C164"/>
-      <c r="D164"/>
-      <c r="E164"/>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165"/>
-      <c r="B165"/>
-      <c r="C165"/>
-      <c r="D165"/>
-      <c r="E165"/>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166"/>
-      <c r="B166"/>
-      <c r="C166"/>
-      <c r="D166"/>
-      <c r="E166"/>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167"/>
-      <c r="B167"/>
-      <c r="C167"/>
-      <c r="D167"/>
-      <c r="E167"/>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168"/>
-      <c r="B168"/>
-      <c r="C168"/>
-      <c r="D168"/>
-      <c r="E168"/>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169"/>
-      <c r="B169"/>
-      <c r="C169"/>
-      <c r="D169"/>
-      <c r="E169"/>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170"/>
-      <c r="B170"/>
-      <c r="C170"/>
-      <c r="D170"/>
-      <c r="E170"/>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171"/>
-      <c r="B171"/>
-      <c r="C171"/>
-      <c r="D171"/>
-      <c r="E171"/>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172"/>
-      <c r="B172"/>
-      <c r="C172"/>
-      <c r="D172"/>
-      <c r="E172"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173"/>
-      <c r="B173"/>
-      <c r="C173"/>
-      <c r="D173"/>
-      <c r="E173"/>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174"/>
-      <c r="B174"/>
-      <c r="C174"/>
-      <c r="D174"/>
-      <c r="E174"/>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175"/>
-      <c r="B175"/>
-      <c r="C175"/>
-      <c r="D175"/>
-      <c r="E175"/>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176"/>
-      <c r="B176"/>
-      <c r="C176"/>
-      <c r="D176"/>
-      <c r="E176"/>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177"/>
-      <c r="B177"/>
-      <c r="C177"/>
-      <c r="D177"/>
-      <c r="E177"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178"/>
-      <c r="B178"/>
-      <c r="C178"/>
-      <c r="D178"/>
-      <c r="E178"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179"/>
-      <c r="B179"/>
-      <c r="C179"/>
-      <c r="D179"/>
-      <c r="E179"/>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180"/>
-      <c r="B180"/>
-      <c r="C180"/>
-      <c r="D180"/>
-      <c r="E180"/>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181"/>
-      <c r="B181"/>
-      <c r="C181"/>
-      <c r="D181"/>
-      <c r="E181"/>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182"/>
-      <c r="B182"/>
-      <c r="C182"/>
-      <c r="D182"/>
-      <c r="E182"/>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183"/>
-      <c r="B183"/>
-      <c r="C183"/>
-      <c r="D183"/>
-      <c r="E183"/>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184"/>
-      <c r="B184"/>
-      <c r="C184"/>
-      <c r="D184"/>
-      <c r="E184"/>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185"/>
-      <c r="B185"/>
-      <c r="C185"/>
-      <c r="D185"/>
-      <c r="E185"/>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186"/>
-      <c r="B186"/>
-      <c r="C186"/>
-      <c r="D186"/>
-      <c r="E186"/>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187"/>
-      <c r="B187"/>
-      <c r="C187"/>
-      <c r="D187"/>
-      <c r="E187"/>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188"/>
-      <c r="B188"/>
-      <c r="C188"/>
-      <c r="D188"/>
-      <c r="E188"/>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189"/>
-      <c r="B189"/>
-      <c r="C189"/>
-      <c r="D189"/>
-      <c r="E189"/>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190"/>
-      <c r="B190"/>
-      <c r="C190"/>
-      <c r="D190"/>
-      <c r="E190"/>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191"/>
-      <c r="B191"/>
-      <c r="C191"/>
-      <c r="D191"/>
-      <c r="E191"/>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192"/>
-      <c r="B192"/>
-      <c r="C192"/>
-      <c r="D192"/>
-      <c r="E192"/>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193"/>
-      <c r="B193"/>
-      <c r="C193"/>
-      <c r="D193"/>
-      <c r="E193"/>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194"/>
-      <c r="B194"/>
-      <c r="C194"/>
-      <c r="D194"/>
-      <c r="E194"/>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195"/>
-      <c r="B195"/>
-      <c r="C195"/>
-      <c r="D195"/>
-      <c r="E195"/>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196"/>
-      <c r="B196"/>
-      <c r="C196"/>
-      <c r="D196"/>
-      <c r="E196"/>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197"/>
-      <c r="B197"/>
-      <c r="C197"/>
-      <c r="D197"/>
-      <c r="E197"/>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198"/>
-      <c r="B198"/>
-      <c r="C198"/>
-      <c r="D198"/>
-      <c r="E198"/>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199"/>
-      <c r="B199"/>
-      <c r="C199"/>
-      <c r="D199"/>
-      <c r="E199"/>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200"/>
-      <c r="B200"/>
-      <c r="C200"/>
-      <c r="D200"/>
-      <c r="E200"/>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201"/>
-      <c r="B201"/>
-      <c r="C201"/>
-      <c r="D201"/>
-      <c r="E201"/>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202"/>
-      <c r="B202"/>
-      <c r="C202"/>
-      <c r="D202"/>
-      <c r="E202"/>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203"/>
-      <c r="B203"/>
-      <c r="C203"/>
-      <c r="D203"/>
-      <c r="E203"/>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204"/>
-      <c r="B204"/>
-      <c r="C204"/>
-      <c r="D204"/>
-      <c r="E204"/>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205"/>
-      <c r="B205"/>
-      <c r="C205"/>
-      <c r="D205"/>
-      <c r="E205"/>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206"/>
-      <c r="B206"/>
-      <c r="C206"/>
-      <c r="D206"/>
-      <c r="E206"/>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207"/>
-      <c r="B207"/>
-      <c r="C207"/>
-      <c r="D207"/>
-      <c r="E207"/>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208"/>
-      <c r="B208"/>
-      <c r="C208"/>
-      <c r="D208"/>
-      <c r="E208"/>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209"/>
-      <c r="B209"/>
-      <c r="C209"/>
-      <c r="D209"/>
-      <c r="E209"/>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210"/>
-      <c r="B210"/>
-      <c r="C210"/>
-      <c r="D210"/>
-      <c r="E210"/>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211"/>
-      <c r="B211"/>
-      <c r="C211"/>
-      <c r="D211"/>
-      <c r="E211"/>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212"/>
-      <c r="B212"/>
-      <c r="C212"/>
-      <c r="D212"/>
-      <c r="E212"/>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213"/>
-      <c r="B213"/>
-      <c r="C213"/>
-      <c r="D213"/>
-      <c r="E213"/>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214"/>
-      <c r="B214"/>
-      <c r="C214"/>
-      <c r="D214"/>
-      <c r="E214"/>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215"/>
-      <c r="B215"/>
-      <c r="C215"/>
-      <c r="D215"/>
-      <c r="E215"/>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216"/>
-      <c r="B216"/>
-      <c r="C216"/>
-      <c r="D216"/>
-      <c r="E216"/>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217"/>
-      <c r="B217"/>
-      <c r="C217"/>
-      <c r="D217"/>
-      <c r="E217"/>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218"/>
-      <c r="B218"/>
-      <c r="C218"/>
-      <c r="D218"/>
-      <c r="E218"/>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219"/>
-      <c r="B219"/>
-      <c r="C219"/>
-      <c r="D219"/>
-      <c r="E219"/>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220"/>
-      <c r="B220"/>
-      <c r="C220"/>
-      <c r="D220"/>
-      <c r="E220"/>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221"/>
-      <c r="B221"/>
-      <c r="C221"/>
-      <c r="D221"/>
-      <c r="E221"/>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222"/>
-      <c r="B222"/>
-      <c r="C222"/>
-      <c r="D222"/>
-      <c r="E222"/>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223"/>
-      <c r="B223"/>
-      <c r="C223"/>
-      <c r="D223"/>
-      <c r="E223"/>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224"/>
-      <c r="B224"/>
-      <c r="C224"/>
-      <c r="D224"/>
-      <c r="E224"/>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225"/>
-      <c r="B225"/>
-      <c r="C225"/>
-      <c r="D225"/>
-      <c r="E225"/>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226"/>
-      <c r="B226"/>
-      <c r="C226"/>
-      <c r="D226"/>
-      <c r="E226"/>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227"/>
-      <c r="B227"/>
-      <c r="C227"/>
-      <c r="D227"/>
-      <c r="E227"/>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228"/>
-      <c r="B228"/>
-      <c r="C228"/>
-      <c r="D228"/>
-      <c r="E228"/>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229"/>
-      <c r="B229"/>
-      <c r="C229"/>
-      <c r="D229"/>
-      <c r="E229"/>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230"/>
-      <c r="B230"/>
-      <c r="C230"/>
-      <c r="D230"/>
-      <c r="E230"/>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231"/>
-      <c r="B231"/>
-      <c r="C231"/>
-      <c r="D231"/>
-      <c r="E231"/>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232"/>
-      <c r="B232"/>
-      <c r="C232"/>
-      <c r="D232"/>
-      <c r="E232"/>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233"/>
-      <c r="B233"/>
-      <c r="C233"/>
-      <c r="D233"/>
-      <c r="E233"/>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234"/>
-      <c r="B234"/>
-      <c r="C234"/>
-      <c r="D234"/>
-      <c r="E234"/>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235"/>
-      <c r="B235"/>
-      <c r="C235"/>
-      <c r="D235"/>
-      <c r="E235"/>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236"/>
-      <c r="B236"/>
-      <c r="C236"/>
-      <c r="D236"/>
-      <c r="E236"/>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237"/>
-      <c r="B237"/>
-      <c r="C237"/>
-      <c r="D237"/>
-      <c r="E237"/>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238"/>
-      <c r="B238"/>
-      <c r="C238"/>
-      <c r="D238"/>
-      <c r="E238"/>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239"/>
-      <c r="B239"/>
-      <c r="C239"/>
-      <c r="D239"/>
-      <c r="E239"/>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240"/>
-      <c r="B240"/>
-      <c r="C240"/>
-      <c r="D240"/>
-      <c r="E240"/>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241"/>
-      <c r="B241"/>
-      <c r="C241"/>
-      <c r="D241"/>
-      <c r="E241"/>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242"/>
-      <c r="B242"/>
-      <c r="C242"/>
-      <c r="D242"/>
-      <c r="E242"/>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243"/>
-      <c r="B243"/>
-      <c r="C243"/>
-      <c r="D243"/>
-      <c r="E243"/>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244"/>
-      <c r="B244"/>
-      <c r="C244"/>
-      <c r="D244"/>
-      <c r="E244"/>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245"/>
-      <c r="B245"/>
-      <c r="C245"/>
-      <c r="D245"/>
-      <c r="E245"/>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246"/>
-      <c r="B246"/>
-      <c r="C246"/>
-      <c r="D246"/>
-      <c r="E246"/>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247"/>
-      <c r="B247"/>
-      <c r="C247"/>
-      <c r="D247"/>
-      <c r="E247"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
